--- a/TensorFlow_20180330a.xlsx
+++ b/TensorFlow_20180330a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>Topic/environment</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Command etc</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -397,11 +400,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK1"/>
+  <dimension ref="A1:AMK2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -436,6 +439,29 @@
       </c>
       <c r="G1" s="3"/>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
